--- a/EMDS/TOPSIS Feb2024/Experimentos/TOPSIS.xlsx
+++ b/EMDS/TOPSIS Feb2024/Experimentos/TOPSIS.xlsx
@@ -1,112 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
-    <sheet name="w" sheetId="2" r:id="rId2"/>
-    <sheet name="Matriz" sheetId="3" r:id="rId3"/>
-    <sheet name="Ranking_alternativas" sheetId="4" r:id="rId4"/>
+    <sheet name="Tiempos" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="w" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Matriz" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Ranking_alternativas" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
-    <t>Algoritmo</t>
-  </si>
-  <si>
-    <t>Hora de inicio</t>
-  </si>
-  <si>
-    <t>Fecha de inicio</t>
-  </si>
-  <si>
-    <t>Hora de finalización</t>
-  </si>
-  <si>
-    <t>Tiempo de ejecución</t>
-  </si>
-  <si>
-    <t>TOPSIS</t>
-  </si>
-  <si>
-    <t>21:54:15.461750</t>
-  </si>
-  <si>
-    <t>21:54:15.473003</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
+    <t xml:space="preserve">Algoritmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora de inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora de finalización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo de ejecución</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:54:15.461750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:54:15.473003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,84 +141,111 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -203,255 +253,159 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,98 +422,120 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3">
-        <v>1.302430555555556E-07</v>
+      <c r="F2" s="3" t="n">
+        <v>1.30243055555556E-007</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="B5" s="0" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -576,277 +552,294 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>0.048</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="D2">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>0.19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>0.053</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>0.052</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>0.066</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>0.081</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0" t="n">
         <v>0.058</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>0.057</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>0.057</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>0.066</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>0.076</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0" t="n">
         <v>0.022</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>0.063</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>0.058</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0" t="n">
         <v>0.007</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>0.066</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>0.066</v>
       </c>
-      <c r="D6">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>0.004</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>0.066</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>0.058</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0" t="n">
         <v>0.003</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>0.075</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>0.075</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>0.066</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0" t="n">
         <v>0.002</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>0.079</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>0.079</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>0.066</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>0.035</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0" t="n">
         <v>0.002</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>0.083</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>0.083</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>0.066</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>0.051</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>